--- a/biology/Botanique/Corema_album/Corema_album.xlsx
+++ b/biology/Botanique/Corema_album/Corema_album.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">camarine à fruits blancs
 La camarine à fruits blancs (Corema album ou Corema alba) est une espèce de plante à fleurs de la famille des Ericaceae (selon la classification APG III), auparavant placée dans les Empetraceae. C'est un sous-arbrisseau dioïque qui pousse en bordure de la côte atlantique, en Andalousie, au Portugal, en Galice, et en Aquitaine.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La camarine est une plante vivace et érigée, haute de 30 à 70 cm, les feuilles sont vert-foncé, semblables à des aiguilles de 6-10mm, les fleurs sont groupées en têtes terminales, les fruits sont de petites drupes blanches de 6 à 8 mm de diamètre. Peu commune en France, elle est plus répandue en Galice et au Portugal.
 Elle pousse en bord de mer dans les dunes fixées (dune grise) ou en sous-bois dans la dune plantée de pins.
@@ -545,7 +559,9 @@
           <t>Usage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les baies, acidulées, sont récoltées autour du 15 aout, et mangées fraîches. On peut en faire de la gelée. On en faisait aussi du vinaigre et de l'eau de vie.
 </t>
@@ -576,7 +592,9 @@
           <t>La camarine dans la culture portugaise</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On la trouve dans une chanson traditionnelle : Fostes au Senhor da Pedra. Elle illustre une légende qui met en scène la reine Élisabeth de Portugal dont les pleurs se changent en baies blanches pour lui laisser voir l'infidélité de son mari Denis Ier de Portugal.
 </t>
